--- a/Load_Profile_Range.xlsx
+++ b/Load_Profile_Range.xlsx
@@ -16,7 +16,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="27">
   <si>
-    <t>Total Load Profile for All Users for: 2023-01-01 to 2023-01-19</t>
+    <t>Total Load Profile for All Users for: 2023-01-01 to 2023-01-20</t>
   </si>
   <si>
     <t>Time</t>
@@ -466,7 +466,7 @@
         <v>3</v>
       </c>
       <c r="B3">
-        <v>0.5739695777722222</v>
+        <v>0.5786936985157896</v>
       </c>
     </row>
     <row r="4" spans="1:3">
@@ -474,7 +474,7 @@
         <v>4</v>
       </c>
       <c r="B4">
-        <v>0.5487584238944445</v>
+        <v>0.5553883948421053</v>
       </c>
     </row>
     <row r="5" spans="1:3">
@@ -482,7 +482,7 @@
         <v>5</v>
       </c>
       <c r="B5">
-        <v>0.5021546518388889</v>
+        <v>0.509553242368421</v>
       </c>
     </row>
     <row r="6" spans="1:3">
@@ -490,7 +490,7 @@
         <v>6</v>
       </c>
       <c r="B6">
-        <v>0.3897594248333334</v>
+        <v>0.3973893431</v>
       </c>
     </row>
     <row r="7" spans="1:3">
@@ -498,7 +498,7 @@
         <v>7</v>
       </c>
       <c r="B7">
-        <v>0.2648895450722222</v>
+        <v>0.2675126149052631</v>
       </c>
     </row>
     <row r="8" spans="1:3">
@@ -506,7 +506,7 @@
         <v>8</v>
       </c>
       <c r="B8">
-        <v>0.3150240346444444</v>
+        <v>0.317891004336842</v>
       </c>
     </row>
     <row r="9" spans="1:3">
@@ -514,7 +514,7 @@
         <v>9</v>
       </c>
       <c r="B9">
-        <v>0.3447651715222222</v>
+        <v>0.3430626234894737</v>
       </c>
     </row>
     <row r="10" spans="1:3">
@@ -522,7 +522,7 @@
         <v>10</v>
       </c>
       <c r="B10">
-        <v>0.3854262876388889</v>
+        <v>0.3826667084157895</v>
       </c>
     </row>
     <row r="11" spans="1:3">
@@ -530,7 +530,7 @@
         <v>11</v>
       </c>
       <c r="B11">
-        <v>0.4456941496388889</v>
+        <v>0.439236928268421</v>
       </c>
     </row>
     <row r="12" spans="1:3">
@@ -538,7 +538,7 @@
         <v>12</v>
       </c>
       <c r="B12">
-        <v>0.4907590451833334</v>
+        <v>0.4851446510263158</v>
       </c>
     </row>
     <row r="13" spans="1:3">
@@ -546,7 +546,7 @@
         <v>13</v>
       </c>
       <c r="B13">
-        <v>0.5262681616111112</v>
+        <v>0.5334119425789475</v>
       </c>
     </row>
     <row r="14" spans="1:3">
@@ -554,7 +554,7 @@
         <v>14</v>
       </c>
       <c r="B14">
-        <v>0.5422333333333333</v>
+        <v>0.5476421052631579</v>
       </c>
     </row>
     <row r="15" spans="1:3">
@@ -562,7 +562,7 @@
         <v>15</v>
       </c>
       <c r="B15">
-        <v>0.5391561911944446</v>
+        <v>0.5462532337631579</v>
       </c>
     </row>
     <row r="16" spans="1:3">
@@ -570,7 +570,7 @@
         <v>16</v>
       </c>
       <c r="B16">
-        <v>0.5341215865833334</v>
+        <v>0.5430888715000001</v>
       </c>
     </row>
     <row r="17" spans="1:2">
@@ -578,7 +578,7 @@
         <v>17</v>
       </c>
       <c r="B17">
-        <v>0.5172777777777777</v>
+        <v>0.5285</v>
       </c>
     </row>
     <row r="18" spans="1:2">
@@ -586,7 +586,7 @@
         <v>18</v>
       </c>
       <c r="B18">
-        <v>0.5298782178944443</v>
+        <v>0.5390162064263158</v>
       </c>
     </row>
     <row r="19" spans="1:2">
@@ -594,7 +594,7 @@
         <v>19</v>
       </c>
       <c r="B19">
-        <v>0.8392555575</v>
+        <v>0.8446761897578948</v>
       </c>
     </row>
     <row r="20" spans="1:2">
@@ -602,7 +602,7 @@
         <v>20</v>
       </c>
       <c r="B20">
-        <v>1.421839581744445</v>
+        <v>1.428286588378948</v>
       </c>
     </row>
     <row r="21" spans="1:2">
@@ -610,7 +610,7 @@
         <v>21</v>
       </c>
       <c r="B21">
-        <v>1.428850880294445</v>
+        <v>1.437801871952632</v>
       </c>
     </row>
     <row r="22" spans="1:2">
@@ -618,7 +618,7 @@
         <v>22</v>
       </c>
       <c r="B22">
-        <v>1.21908469565</v>
+        <v>1.217591516178947</v>
       </c>
     </row>
     <row r="23" spans="1:2">
@@ -626,7 +626,7 @@
         <v>23</v>
       </c>
       <c r="B23">
-        <v>0.8934372227166667</v>
+        <v>0.8926623312947368</v>
       </c>
     </row>
     <row r="24" spans="1:2">
@@ -634,7 +634,7 @@
         <v>24</v>
       </c>
       <c r="B24">
-        <v>0.7387280509944445</v>
+        <v>0.7417273265052632</v>
       </c>
     </row>
     <row r="25" spans="1:2">
@@ -642,7 +642,7 @@
         <v>25</v>
       </c>
       <c r="B25">
-        <v>0.653608089888889</v>
+        <v>0.6570347317736843</v>
       </c>
     </row>
     <row r="26" spans="1:2">
@@ -650,7 +650,7 @@
         <v>26</v>
       </c>
       <c r="B26">
-        <v>0.5994322282944444</v>
+        <v>0.6038154944736842</v>
       </c>
     </row>
   </sheetData>

--- a/Load_Profile_Range.xlsx
+++ b/Load_Profile_Range.xlsx
@@ -16,7 +16,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="27">
   <si>
-    <t>Total Load Profile for All Users for: 2023-01-01 to 2023-01-20</t>
+    <t>Total Load Profile for All Users for: 2023-01-01 to 2023-01-25 (Mthembanji)</t>
   </si>
   <si>
     <t>Time</t>
@@ -466,7 +466,7 @@
         <v>3</v>
       </c>
       <c r="B3">
-        <v>0.5786936985157896</v>
+        <v>0.5905737749666666</v>
       </c>
     </row>
     <row r="4" spans="1:3">
@@ -474,7 +474,7 @@
         <v>4</v>
       </c>
       <c r="B4">
-        <v>0.5553883948421053</v>
+        <v>0.5479917984458333</v>
       </c>
     </row>
     <row r="5" spans="1:3">
@@ -482,7 +482,7 @@
         <v>5</v>
       </c>
       <c r="B5">
-        <v>0.509553242368421</v>
+        <v>0.5135806293208333</v>
       </c>
     </row>
     <row r="6" spans="1:3">
@@ -490,7 +490,7 @@
         <v>6</v>
       </c>
       <c r="B6">
-        <v>0.3973893431</v>
+        <v>0.3827882563</v>
       </c>
     </row>
     <row r="7" spans="1:3">
@@ -498,7 +498,7 @@
         <v>7</v>
       </c>
       <c r="B7">
-        <v>0.2675126149052631</v>
+        <v>0.2551775131458333</v>
       </c>
     </row>
     <row r="8" spans="1:3">
@@ -506,7 +506,7 @@
         <v>8</v>
       </c>
       <c r="B8">
-        <v>0.317891004336842</v>
+        <v>0.3003832462166666</v>
       </c>
     </row>
     <row r="9" spans="1:3">
@@ -514,7 +514,7 @@
         <v>9</v>
       </c>
       <c r="B9">
-        <v>0.3430626234894737</v>
+        <v>0.3177586282</v>
       </c>
     </row>
     <row r="10" spans="1:3">
@@ -522,7 +522,7 @@
         <v>10</v>
       </c>
       <c r="B10">
-        <v>0.3826667084157895</v>
+        <v>0.3530639424416667</v>
       </c>
     </row>
     <row r="11" spans="1:3">
@@ -530,7 +530,7 @@
         <v>11</v>
       </c>
       <c r="B11">
-        <v>0.439236928268421</v>
+        <v>0.4145977132166667</v>
       </c>
     </row>
     <row r="12" spans="1:3">
@@ -538,7 +538,7 @@
         <v>12</v>
       </c>
       <c r="B12">
-        <v>0.4851446510263158</v>
+        <v>0.4611961126166667</v>
       </c>
     </row>
     <row r="13" spans="1:3">
@@ -546,7 +546,7 @@
         <v>13</v>
       </c>
       <c r="B13">
-        <v>0.5334119425789475</v>
+        <v>0.5048660517625001</v>
       </c>
     </row>
     <row r="14" spans="1:3">
@@ -554,7 +554,7 @@
         <v>14</v>
       </c>
       <c r="B14">
-        <v>0.5476421052631579</v>
+        <v>0.5290899305541666</v>
       </c>
     </row>
     <row r="15" spans="1:3">
@@ -562,7 +562,7 @@
         <v>15</v>
       </c>
       <c r="B15">
-        <v>0.5462532337631579</v>
+        <v>0.5226154072833334</v>
       </c>
     </row>
     <row r="16" spans="1:3">
@@ -570,7 +570,7 @@
         <v>16</v>
       </c>
       <c r="B16">
-        <v>0.5430888715000001</v>
+        <v>0.5487995232708334</v>
       </c>
     </row>
     <row r="17" spans="1:2">
@@ -578,7 +578,7 @@
         <v>17</v>
       </c>
       <c r="B17">
-        <v>0.5285</v>
+        <v>0.536875</v>
       </c>
     </row>
     <row r="18" spans="1:2">
@@ -586,7 +586,7 @@
         <v>18</v>
       </c>
       <c r="B18">
-        <v>0.5390162064263158</v>
+        <v>0.5363044967541667</v>
       </c>
     </row>
     <row r="19" spans="1:2">
@@ -594,7 +594,7 @@
         <v>19</v>
       </c>
       <c r="B19">
-        <v>0.8446761897578948</v>
+        <v>0.8397789269208333</v>
       </c>
     </row>
     <row r="20" spans="1:2">
@@ -602,7 +602,7 @@
         <v>20</v>
       </c>
       <c r="B20">
-        <v>1.428286588378948</v>
+        <v>1.454547154070833</v>
       </c>
     </row>
     <row r="21" spans="1:2">
@@ -610,7 +610,7 @@
         <v>21</v>
       </c>
       <c r="B21">
-        <v>1.437801871952632</v>
+        <v>1.461855282575</v>
       </c>
     </row>
     <row r="22" spans="1:2">
@@ -618,7 +618,7 @@
         <v>22</v>
       </c>
       <c r="B22">
-        <v>1.217591516178947</v>
+        <v>1.242746358066667</v>
       </c>
     </row>
     <row r="23" spans="1:2">
@@ -626,7 +626,7 @@
         <v>23</v>
       </c>
       <c r="B23">
-        <v>0.8926623312947368</v>
+        <v>0.9066492689375001</v>
       </c>
     </row>
     <row r="24" spans="1:2">
@@ -634,7 +634,7 @@
         <v>24</v>
       </c>
       <c r="B24">
-        <v>0.7417273265052632</v>
+        <v>0.7356442331125002</v>
       </c>
     </row>
     <row r="25" spans="1:2">
@@ -642,7 +642,7 @@
         <v>25</v>
       </c>
       <c r="B25">
-        <v>0.6570347317736843</v>
+        <v>0.6639225569458335</v>
       </c>
     </row>
     <row r="26" spans="1:2">
@@ -650,7 +650,7 @@
         <v>26</v>
       </c>
       <c r="B26">
-        <v>0.6038154944736842</v>
+        <v>0.6150830838625</v>
       </c>
     </row>
   </sheetData>

--- a/Load_Profile_Range.xlsx
+++ b/Load_Profile_Range.xlsx
@@ -16,7 +16,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="27">
   <si>
-    <t>Total Load Profile for All Users for: 2023-01-01 to 2023-01-25 (Mthembanji)</t>
+    <t>Total Load Profile for All Users for: 2023-02-01 to 2023-02-07 (Mthembanji)</t>
   </si>
   <si>
     <t>Time</t>
@@ -466,7 +466,7 @@
         <v>3</v>
       </c>
       <c r="B3">
-        <v>0.5905737749666666</v>
+        <v>0.6038590566333333</v>
       </c>
     </row>
     <row r="4" spans="1:3">
@@ -474,7 +474,7 @@
         <v>4</v>
       </c>
       <c r="B4">
-        <v>0.5479917984458333</v>
+        <v>0.57793235115</v>
       </c>
     </row>
     <row r="5" spans="1:3">
@@ -482,7 +482,7 @@
         <v>5</v>
       </c>
       <c r="B5">
-        <v>0.5135806293208333</v>
+        <v>0.4796193099333334</v>
       </c>
     </row>
     <row r="6" spans="1:3">
@@ -490,7 +490,7 @@
         <v>6</v>
       </c>
       <c r="B6">
-        <v>0.3827882563</v>
+        <v>0.3303831988166667</v>
       </c>
     </row>
     <row r="7" spans="1:3">
@@ -498,7 +498,7 @@
         <v>7</v>
       </c>
       <c r="B7">
-        <v>0.2551775131458333</v>
+        <v>0.21894855105</v>
       </c>
     </row>
     <row r="8" spans="1:3">
@@ -506,7 +506,7 @@
         <v>8</v>
       </c>
       <c r="B8">
-        <v>0.3003832462166666</v>
+        <v>0.2308176151166667</v>
       </c>
     </row>
     <row r="9" spans="1:3">
@@ -514,7 +514,7 @@
         <v>9</v>
       </c>
       <c r="B9">
-        <v>0.3177586282</v>
+        <v>0.2118729778</v>
       </c>
     </row>
     <row r="10" spans="1:3">
@@ -522,7 +522,7 @@
         <v>10</v>
       </c>
       <c r="B10">
-        <v>0.3530639424416667</v>
+        <v>0.2418962275666666</v>
       </c>
     </row>
     <row r="11" spans="1:3">
@@ -530,7 +530,7 @@
         <v>11</v>
       </c>
       <c r="B11">
-        <v>0.4145977132166667</v>
+        <v>0.2398082545833333</v>
       </c>
     </row>
     <row r="12" spans="1:3">
@@ -538,7 +538,7 @@
         <v>12</v>
       </c>
       <c r="B12">
-        <v>0.4611961126166667</v>
+        <v>0.2600550215333333</v>
       </c>
     </row>
     <row r="13" spans="1:3">
@@ -546,7 +546,7 @@
         <v>13</v>
       </c>
       <c r="B13">
-        <v>0.5048660517625001</v>
+        <v>0.2904570931666667</v>
       </c>
     </row>
     <row r="14" spans="1:3">
@@ -554,7 +554,7 @@
         <v>14</v>
       </c>
       <c r="B14">
-        <v>0.5290899305541666</v>
+        <v>0.3824678078166667</v>
       </c>
     </row>
     <row r="15" spans="1:3">
@@ -562,7 +562,7 @@
         <v>15</v>
       </c>
       <c r="B15">
-        <v>0.5226154072833334</v>
+        <v>0.4072763541</v>
       </c>
     </row>
     <row r="16" spans="1:3">
@@ -570,7 +570,7 @@
         <v>16</v>
       </c>
       <c r="B16">
-        <v>0.5487995232708334</v>
+        <v>0.3697380952333333</v>
       </c>
     </row>
     <row r="17" spans="1:2">
@@ -578,7 +578,7 @@
         <v>17</v>
       </c>
       <c r="B17">
-        <v>0.536875</v>
+        <v>0.3797380952333334</v>
       </c>
     </row>
     <row r="18" spans="1:2">
@@ -586,7 +586,7 @@
         <v>18</v>
       </c>
       <c r="B18">
-        <v>0.5363044967541667</v>
+        <v>0.3870964285666667</v>
       </c>
     </row>
     <row r="19" spans="1:2">
@@ -594,7 +594,7 @@
         <v>19</v>
       </c>
       <c r="B19">
-        <v>0.8397789269208333</v>
+        <v>0.6540056659333334</v>
       </c>
     </row>
     <row r="20" spans="1:2">
@@ -602,7 +602,7 @@
         <v>20</v>
       </c>
       <c r="B20">
-        <v>1.454547154070833</v>
+        <v>1.289334465116666</v>
       </c>
     </row>
     <row r="21" spans="1:2">
@@ -610,7 +610,7 @@
         <v>21</v>
       </c>
       <c r="B21">
-        <v>1.461855282575</v>
+        <v>1.306252828666667</v>
       </c>
     </row>
     <row r="22" spans="1:2">
@@ -618,7 +618,7 @@
         <v>22</v>
       </c>
       <c r="B22">
-        <v>1.242746358066667</v>
+        <v>1.141958437383333</v>
       </c>
     </row>
     <row r="23" spans="1:2">
@@ -626,7 +626,7 @@
         <v>23</v>
       </c>
       <c r="B23">
-        <v>0.9066492689375001</v>
+        <v>0.9193466253333334</v>
       </c>
     </row>
     <row r="24" spans="1:2">
@@ -634,7 +634,7 @@
         <v>24</v>
       </c>
       <c r="B24">
-        <v>0.7356442331125002</v>
+        <v>0.7571434410333334</v>
       </c>
     </row>
     <row r="25" spans="1:2">
@@ -642,7 +642,7 @@
         <v>25</v>
       </c>
       <c r="B25">
-        <v>0.6639225569458335</v>
+        <v>0.6697408212833333</v>
       </c>
     </row>
     <row r="26" spans="1:2">
@@ -650,7 +650,7 @@
         <v>26</v>
       </c>
       <c r="B26">
-        <v>0.6150830838625</v>
+        <v>0.6287314723166667</v>
       </c>
     </row>
   </sheetData>
